--- a/data/closures/data/dcrab_season_key.xlsx
+++ b/data/closures/data/dcrab_season_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/closures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC0B51F-7575-CB4F-AA75-A50B4CA9F8E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81735E05-EF13-E045-A827-3AD01419AD9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8660" yWindow="5880" windowWidth="28040" windowHeight="17440" xr2:uid="{11E45FF2-4E20-4241-8C24-FADD44DBF932}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
